--- a/thresholds/IGCSE/chinese-as-a-second-language/chinese-as-a-second-language-thresholds.xlsx
+++ b/thresholds/IGCSE/chinese-as-a-second-language/chinese-as-a-second-language-thresholds.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -534,41 +534,41 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>A 01,02,03</t>
+          <t>P1 50</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="C3" t="n">
-        <v>173</v>
+        <v>77</v>
       </c>
       <c r="D3" t="n">
-        <v>151</v>
+        <v>68</v>
       </c>
       <c r="E3" t="n">
-        <v>129</v>
+        <v>59</v>
       </c>
       <c r="F3" t="n">
-        <v>107</v>
+        <v>51</v>
       </c>
       <c r="G3" t="n">
-        <v>90</v>
+        <v>41</v>
       </c>
       <c r="H3" t="n">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="I3" t="n">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>14</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>June 2023</t>
+          <t>June 2022</t>
         </is>
       </c>
     </row>
@@ -582,34 +582,34 @@
         <v>200</v>
       </c>
       <c r="C4" t="n">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="D4" t="n">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="E4" t="n">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="F4" t="n">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G4" t="n">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="H4" t="n">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="I4" t="n">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>35</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>June 2024</t>
+          <t>June 2023</t>
         </is>
       </c>
     </row>
@@ -623,32 +623,73 @@
         <v>200</v>
       </c>
       <c r="C5" t="n">
+        <v>164</v>
+      </c>
+      <c r="D5" t="n">
+        <v>144</v>
+      </c>
+      <c r="E5" t="n">
+        <v>124</v>
+      </c>
+      <c r="F5" t="n">
+        <v>104</v>
+      </c>
+      <c r="G5" t="n">
+        <v>86</v>
+      </c>
+      <c r="H5" t="n">
+        <v>69</v>
+      </c>
+      <c r="I5" t="n">
+        <v>51</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>June 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>A 01,02,03</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>200</v>
+      </c>
+      <c r="C6" t="n">
         <v>169</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>149</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E6" t="n">
         <v>129</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F6" t="n">
         <v>109</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G6" t="n">
         <v>91</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H6" t="n">
         <v>73</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I6" t="n">
         <v>54</v>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>June 2025</t>
         </is>
